--- a/Coding/Datasets/btc-googletrends.xlsx
+++ b/Coding/Datasets/btc-googletrends.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>bitcoin</t>
   </si>
   <si>
     <t>bitcoin Adj</t>
   </si>
-  <si>
-    <t>date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,10 +43,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,37 +72,67 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -106,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -147,69 +182,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -233,54 +270,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -290,7 +326,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -299,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -308,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -316,10 +352,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -348,7 +384,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -361,13 +397,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -385,1033 +420,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
         <v>44563</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>35.07692307692307</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>44564</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>41</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>37.84615384615384</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>44565</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>36.92307692307692</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>44566</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>40.61538461538461</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
         <v>44567</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>66</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>60.92307692307691</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>44568</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>59.99999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>44569</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>52.61538461538461</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
         <v>44570</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>35.07692307692307</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
         <v>44571</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>56</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>38.5158371040724</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1">
         <v>44572</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>54</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>37.14027149321267</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1">
         <v>44573</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>50</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>34.38914027149321</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1">
         <v>44574</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>46</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>31.63800904977376</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1">
         <v>44575</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>44</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>30.26244343891403</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
         <v>44576</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>38</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>26.13574660633484</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
         <v>44577</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>38</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
         <v>44578</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
         <v>44579</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>43</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1">
         <v>44580</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1">
         <v>44581</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>41</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1">
         <v>44582</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>80</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1">
         <v>44583</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1">
         <v>44584</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>74</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>48.71794871794872</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1">
         <v>44585</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>96</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>63.20166320166321</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1">
         <v>44586</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>73</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>48.05959805959806</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1">
         <v>44587</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>68</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>44.76784476784476</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1">
         <v>44588</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>61</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>40.15939015939016</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
         <v>44589</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>56</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>36.86763686763687</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1">
         <v>44590</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>48</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>31.6008316008316</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1">
         <v>44591</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>45</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>35.07692307692307</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1">
         <v>44592</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>48</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>37.41538461538462</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1">
         <v>44593</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>49</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>38.19487179487179</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1">
         <v>44594</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>47</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>36.63589743589743</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1">
         <v>44595</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>48</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>37.41538461538462</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="1">
         <v>44596</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>50</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>38.97435897435897</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="1">
         <v>44597</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>53</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>41.31282051282052</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1">
         <v>44598</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>34.1025641025641</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="1">
         <v>44599</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>55</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>43.61955873583781</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="1">
         <v>44600</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>51</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>40.44722719141323</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="1">
         <v>44601</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>51</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>40.44722719141323</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="1">
         <v>44602</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>49</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>38.86106141920095</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="1">
         <v>44603</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>44</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>34.89564698867024</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="1">
         <v>44604</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>31.72331544424568</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="1">
         <v>44605</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>36</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>29.23076923076923</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="1">
         <v>44606</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>34.1025641025641</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="1">
         <v>44607</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>34.91452991452991</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="1">
         <v>44608</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>40</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>32.47863247863248</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="1">
         <v>44609</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>34.1025641025641</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="1">
         <v>44610</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>34.91452991452991</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="1">
         <v>44611</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>38</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>30.85470085470086</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1">
         <v>44612</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>43</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="1">
         <v>44613</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>47</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>41.53488372093023</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="1">
         <v>44614</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>45.95348837209302</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="1">
         <v>44615</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>44</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>38.88372093023256</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="1">
         <v>44616</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>84</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>74.23255813953489</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="1">
         <v>44617</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>58</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>51.25581395348837</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="1">
         <v>44618</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>44</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>38.88372093023256</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="1">
         <v>44619</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>44</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>35.07692307692307</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="1">
         <v>44620</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>55</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>43.84615384615385</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="1">
         <v>44621</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>47.83216783216783</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="1">
         <v>44622</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>53</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>42.25174825174825</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="1">
         <v>44623</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>47</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>37.46853146853147</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="1">
         <v>44624</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>46</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>36.67132867132867</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="1">
         <v>44625</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>31.88811188811189</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="1">
         <v>44626</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>39</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>31.17948717948718</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="1">
         <v>44627</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>46</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>36.77580539119</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="1">
         <v>44628</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>43</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>34.37738330046022</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="1">
         <v>44629</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>50</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>39.97370151216305</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="1">
         <v>44630</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>45</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>35.97633136094674</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="1">
         <v>44631</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>41</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>32.7784352399737</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="1">
         <v>44632</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>36</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>28.78106508875739</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="1">
         <v>44633</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>35</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>26.30769230769231</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="1">
         <v>44634</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>39</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>29.31428571428571</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="1">
         <v>44635</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>37</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>27.81098901098901</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="1">
         <v>44636</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>37</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>27.81098901098901</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="1">
         <v>44637</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>36</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>27.05934065934066</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="1">
         <v>44638</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>35</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>26.30769230769231</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="1">
         <v>44639</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>34</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <v>25.55604395604396</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="1">
         <v>44640</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>32</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>26.30769230769231</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="1">
         <v>44641</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>34</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>27.95192307692308</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="1">
         <v>44642</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>37</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>30.41826923076923</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="1">
         <v>44643</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>37</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>30.41826923076923</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="1">
         <v>44644</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>40</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>32.88461538461539</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="1">
         <v>44645</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>39</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>32.0625</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="1">
         <v>44646</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>34</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>27.95192307692308</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="1">
         <v>44647</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>36</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>28.25641025641026</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="1">
         <v>44648</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>48</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>37.67521367521368</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="1">
         <v>44649</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>42</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>32.96581196581197</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="1">
         <v>44650</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>40</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>31.3960113960114</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="1">
         <v>44651</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>38</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>29.82621082621083</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="1">
         <v>44652</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>39</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>30.61111111111111</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="1">
         <v>44653</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>33</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>25.9017094017094</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="1">
         <v>44654</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>33</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>24.35897435897436</v>
       </c>
     </row>
